--- a/Schablonen/XrayNormal.xlsx
+++ b/Schablonen/XrayNormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164F6FE7-0DE9-41F1-AD5B-1016699D60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE61BA1-2593-46D6-83B6-0BFCAEE7DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="41180" windowHeight="21100" xr2:uid="{E9688302-5921-49C1-BE4B-315E9EEA5948}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="446">
   <si>
     <t>Gliederung</t>
   </si>
@@ -1368,6 +1367,12 @@
   </si>
   <si>
     <t>unauffällilg</t>
+  </si>
+  <si>
+    <t>Indikation geprüft</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -1746,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD863459-8DC2-4F08-8B8A-0734853F8245}">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1758,19 +1763,19 @@
     <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="115.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="68.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="170.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="170.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="81.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1787,34 +1792,37 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1827,42 +1835,42 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1875,104 +1883,110 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>45</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1988,606 +2002,608 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>56</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>57</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>59</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
         <v>61</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>62</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I15" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
         <v>64</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>65</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>69</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>57</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>58</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>59</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I17" t="s">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
         <v>71</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>62</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I18" t="s">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>65</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>75</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>57</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>58</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>59</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I20" t="s">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
         <v>77</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>62</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I21" t="s">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
         <v>78</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>65</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>81</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>57</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>58</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>59</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I23" t="s">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J23" t="s">
         <v>83</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>62</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I24" t="s">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J24" t="s">
         <v>84</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>65</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>86</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>57</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>58</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>59</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I26" t="s">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
         <v>88</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>65</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>91</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>57</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>58</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>59</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I28" t="s">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
         <v>93</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>65</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>96</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>57</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>58</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>59</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I30" t="s">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J30" t="s">
         <v>98</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>65</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>99</v>
       </c>
       <c r="D31" t="s">
         <v>100</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>101</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>57</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>58</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>59</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I32" t="s">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
         <v>103</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>65</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>105</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>106</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>108</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>109</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>65</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>112</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>113</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>65</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>66</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>115</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I37" t="s">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J37" t="s">
         <v>119</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>120</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>122</v>
       </c>
       <c r="D38" t="s">
         <v>122</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>123</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>57</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>58</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>59</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I39" t="s">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J39" t="s">
         <v>125</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>126</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I40" t="s">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J40" t="s">
         <v>128</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>129</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>131</v>
       </c>
       <c r="D41" t="s">
         <v>131</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>132</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>133</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>134</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E42" s="2"/>
-      <c r="I42" t="s">
+      <c r="F42" s="2"/>
+      <c r="J42" t="s">
         <v>136</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>57</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>58</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E43" s="2"/>
-      <c r="I43" t="s">
+      <c r="F43" s="2"/>
+      <c r="J43" t="s">
         <v>137</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>139</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I44" t="s">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J44" t="s">
         <v>141</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>142</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>144</v>
       </c>
       <c r="D45" t="s">
         <v>145</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>146</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>147</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>148</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>149</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>151</v>
       </c>
       <c r="D46" t="s">
         <v>152</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>153</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>154</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>155</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>157</v>
       </c>
       <c r="D47" t="s">
         <v>157</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>158</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>120</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>159</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I48" t="s">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J48" t="s">
         <v>161</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>162</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -2600,139 +2616,139 @@
       <c r="E50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>167</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>170</v>
       </c>
       <c r="D51" t="s">
         <v>171</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>166</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>172</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>174</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>175</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I52" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J52" t="s">
         <v>177</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>178</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="L52" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>180</v>
       </c>
       <c r="D53" t="s">
         <v>181</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>166</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>182</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>174</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I54" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J54" t="s">
         <v>185</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>179</v>
       </c>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>186</v>
       </c>
       <c r="D55" t="s">
         <v>187</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>166</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>188</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>174</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="N55" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I56" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J56" t="s">
         <v>191</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>179</v>
       </c>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -2748,175 +2764,175 @@
       <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>195</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>196</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>198</v>
       </c>
       <c r="D59" t="s">
         <v>198</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>195</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>199</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>200</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>201</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>202</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I60" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J60" t="s">
         <v>204</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>205</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I61" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J61" t="s">
         <v>207</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>120</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>209</v>
       </c>
       <c r="D62" t="s">
         <v>209</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>195</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>210</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>200</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>201</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>211</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I63" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J63" t="s">
         <v>213</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>120</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I64" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J64" t="s">
         <v>214</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>215</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>216</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>218</v>
       </c>
       <c r="D65" t="s">
         <v>219</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>195</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>220</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>57</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>58</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>221</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I66" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J66" t="s">
         <v>223</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>120</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I67" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J67" t="s">
         <v>224</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>215</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>216</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>47</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>226</v>
       </c>
@@ -2929,80 +2945,80 @@
       <c r="E69" t="s">
         <v>15</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>229</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>231</v>
       </c>
       <c r="D70" t="s">
         <v>232</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>227</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>233</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>57</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>58</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>234</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>236</v>
       </c>
       <c r="D71" t="s">
         <v>237</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>227</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>238</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>239</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>240</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>241</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>242</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>244</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>245</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>247</v>
       </c>
@@ -3015,91 +3031,91 @@
       <c r="E73" t="s">
         <v>15</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>442</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>251</v>
       </c>
       <c r="D74" t="s">
         <v>252</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>245</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>443</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>253</v>
       </c>
       <c r="D75" t="s">
         <v>254</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>245</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>443</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>256</v>
       </c>
       <c r="D76" t="s">
         <v>257</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>245</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>443</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>258</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>259</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>260</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>261</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>262</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I77" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J77" t="s">
         <v>264</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>120</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>266</v>
       </c>
@@ -3112,87 +3128,87 @@
       <c r="E78" t="s">
         <v>15</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>268</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>236</v>
       </c>
       <c r="D79" t="s">
         <v>270</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>268</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>271</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>273</v>
       </c>
       <c r="D80" t="s">
         <v>274</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>268</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>276</v>
       </c>
       <c r="D81" t="s">
         <v>277</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>268</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>279</v>
       </c>
       <c r="D82" t="s">
         <v>280</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>281</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>282</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>283</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>47</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>286</v>
       </c>
@@ -3205,42 +3221,42 @@
       <c r="E84" t="s">
         <v>15</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>288</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>290</v>
       </c>
       <c r="D85" t="s">
         <v>291</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
         <v>293</v>
       </c>
       <c r="D86" t="s">
         <v>294</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>288</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>296</v>
       </c>
@@ -3253,96 +3269,96 @@
       <c r="E87" t="s">
         <v>15</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>299</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>300</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>302</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>299</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>304</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>306</v>
       </c>
       <c r="D89" t="s">
         <v>307</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>299</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>308</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>310</v>
       </c>
       <c r="D90" t="s">
         <v>311</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>299</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>312</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>314</v>
       </c>
       <c r="D91" t="s">
         <v>315</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>299</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>316</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>244</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>318</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>320</v>
       </c>
@@ -3355,42 +3371,42 @@
       <c r="D93" t="s">
         <v>322</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>318</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>323</v>
       </c>
       <c r="D94" t="s">
         <v>324</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>318</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>325</v>
       </c>
       <c r="D95" t="s">
         <v>326</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>318</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>328</v>
       </c>
@@ -3403,79 +3419,79 @@
       <c r="D96" t="s">
         <v>330</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>331</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>332</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>333</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>334</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I97" t="s">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J97" t="s">
         <v>336</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>200</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I98" t="s">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J98" t="s">
         <v>337</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>338</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
         <v>340</v>
       </c>
       <c r="D99" t="s">
         <v>340</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>341</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>200</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>201</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>342</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I100" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J100" t="s">
         <v>344</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>345</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>347</v>
       </c>
@@ -3485,149 +3501,149 @@
       <c r="E101" t="s">
         <v>15</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>348</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>349</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>351</v>
       </c>
       <c r="D102" t="s">
         <v>351</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>348</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>352</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>200</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>201</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>353</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I103" t="s">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J103" t="s">
         <v>355</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>356</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I104" t="s">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J104" t="s">
         <v>358</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>359</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>361</v>
       </c>
       <c r="D105" t="s">
         <v>361</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>362</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>363</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>364</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>365</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>366</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I106" t="s">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J106" t="s">
         <v>368</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>120</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I107" t="s">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J107" t="s">
         <v>370</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>364</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I108" t="s">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J108" t="s">
         <v>372</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>364</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
         <v>374</v>
       </c>
       <c r="D109" t="s">
         <v>375</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>362</v>
       </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>376</v>
       </c>
-      <c r="N109" t="s">
+      <c r="O109" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>47</v>
       </c>
-      <c r="M110" t="s">
+      <c r="N110" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>379</v>
       </c>
@@ -3640,82 +3656,82 @@
       <c r="E111" t="s">
         <v>15</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>381</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
         <v>383</v>
       </c>
       <c r="D112" t="s">
         <v>384</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>227</v>
       </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
         <v>386</v>
       </c>
       <c r="D113" t="s">
         <v>386</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>227</v>
       </c>
-      <c r="M113" t="s">
+      <c r="N113" t="s">
         <v>387</v>
       </c>
-      <c r="N113" t="s">
+      <c r="O113" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
         <v>389</v>
       </c>
       <c r="D114" t="s">
         <v>389</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>227</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>390</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>200</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>201</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>391</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>392</v>
       </c>
-      <c r="N114" t="s">
+      <c r="O114" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>47</v>
       </c>
-      <c r="M115" t="s">
+      <c r="N115" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>395</v>
       </c>
@@ -3728,129 +3744,129 @@
       <c r="E116" t="s">
         <v>15</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>398</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
         <v>400</v>
       </c>
       <c r="D117" t="s">
         <v>401</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>396</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>402</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>200</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>201</v>
-      </c>
-      <c r="M117" t="s">
-        <v>403</v>
       </c>
       <c r="N117" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I118" t="s">
+      <c r="O117" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J118" t="s">
         <v>404</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>405</v>
       </c>
-      <c r="K118" t="s">
+      <c r="L118" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I119" t="s">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J119" t="s">
         <v>406</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>178</v>
       </c>
-      <c r="K119" t="s">
+      <c r="L119" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
         <v>407</v>
       </c>
       <c r="D120" t="s">
         <v>408</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>396</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>409</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>57</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>58</v>
-      </c>
-      <c r="M120" t="s">
-        <v>410</v>
       </c>
       <c r="N120" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I121" t="s">
+      <c r="O120" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J121" t="s">
         <v>411</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>405</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I122" t="s">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J122" t="s">
         <v>412</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>178</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>47</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>244</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>414</v>
       </c>
-      <c r="M124" t="s">
+      <c r="N124" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -3866,135 +3882,135 @@
       <c r="E125" t="s">
         <v>15</v>
       </c>
-      <c r="M125" t="s">
+      <c r="N125" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
         <v>420</v>
       </c>
       <c r="D126" t="s">
         <v>421</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>414</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>422</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>215</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>216</v>
       </c>
-      <c r="M126" t="s">
+      <c r="N126" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C127" t="s">
         <v>424</v>
       </c>
       <c r="D127" t="s">
         <v>425</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>414</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>426</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" t="s">
         <v>200</v>
       </c>
-      <c r="K127" t="s">
+      <c r="L127" t="s">
         <v>201</v>
       </c>
-      <c r="M127" t="s">
+      <c r="N127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I128" t="s">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J128" t="s">
         <v>428</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>215</v>
       </c>
-      <c r="K128" t="s">
+      <c r="L128" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="129" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C129" t="s">
         <v>429</v>
       </c>
       <c r="D129" t="s">
         <v>429</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>414</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>430</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>200</v>
       </c>
-      <c r="K129" t="s">
+      <c r="L129" t="s">
         <v>201</v>
       </c>
-      <c r="M129" t="s">
+      <c r="N129" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="130" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I130" t="s">
+    <row r="130" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J130" t="s">
         <v>432</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>215</v>
       </c>
-      <c r="K130" t="s">
+      <c r="L130" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C131" t="s">
         <v>433</v>
       </c>
       <c r="D131" t="s">
         <v>433</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>434</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>435</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>436</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>437</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>438</v>
       </c>
-      <c r="N131" t="s">
+      <c r="O131" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I132" t="s">
+    <row r="132" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J132" t="s">
         <v>440</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>364</v>
       </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4004,6 +4020,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B662EE53BAED864D9E45A03F917DD171" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0b478698d34ba6ea8d28dcb235cef59d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac726c7a-29b1-4eed-9efa-e398fb837db4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bae4f718acc166ce461856f4d6d984a" ns3:_="">
     <xsd:import namespace="ac726c7a-29b1-4eed-9efa-e398fb837db4"/>
@@ -4149,22 +4180,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC27FD34-7D59-4F13-870A-01667C34E6ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac726c7a-29b1-4eed-9efa-e398fb837db4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368DB8FB-3FF0-4C81-B088-BE74BE0C63EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1CA99AA-BB55-4566-A33D-E268FF599705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4180,28 +4220,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368DB8FB-3FF0-4C81-B088-BE74BE0C63EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC27FD34-7D59-4F13-870A-01667C34E6ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ac726c7a-29b1-4eed-9efa-e398fb837db4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>